--- a/metas.xlsx
+++ b/metas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\ANALISIS DE VENTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A728CB-2C98-47FC-B0B4-1A9BCBB55F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC66A97-530C-4B43-BDF0-A3D88302E741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,6 +394,7 @@
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -421,7 +422,7 @@
         <v>45689</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B13" si="0">+C3*510</f>
+        <f t="shared" ref="B3:B12" si="0">+C3*510</f>
         <v>668100000</v>
       </c>
       <c r="C3" s="3">
@@ -541,8 +542,8 @@
         <v>45992</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>687480000</v>
+        <f>+C13*501.42</f>
+        <v>675914160</v>
       </c>
       <c r="C13" s="3">
         <v>1348000</v>
